--- a/static/excel/basic_cert.xlsx
+++ b/static/excel/basic_cert.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\workspace\management\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="345" windowWidth="20865" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="20865" windowHeight="7740"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="certificates" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,21 +24,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>강좌명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강좌 아이디</t>
+    <t>카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강좌 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관별 강좌 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카운트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,8 +118,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,32 +401,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="47.375" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
